--- a/PayrollProject/templates/CourtOrderPAEO1971MaintenanceInputSheet.xlsx
+++ b/PayrollProject/templates/CourtOrderPAEO1971MaintenanceInputSheet.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AzizMugdal\Provar\NewPeopleXCDPayroll\PayrollProject\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AzizMugdal\git\24-7PeopleXCDPayroll\PayrollProject\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9DDC5BD-D0F5-4E2D-BC9A-37E49994FB3B}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D26DB0C8-4ADC-4893-8A5C-FF7F7288774A}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7485" xr2:uid="{1571BB46-0028-4CBE-BD11-D3A64AAEE268}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="18">
   <si>
     <t>EmpName</t>
   </si>
@@ -79,7 +79,13 @@
     <t>PAEO1971maintenance_Payroll</t>
   </si>
   <si>
-    <t>DO NOT TOUCH AUTMN PAEOMaintenance</t>
+    <t>DO NOT TOUCH PAEOMtncOct</t>
+  </si>
+  <si>
+    <t>DO NOT TOUCH PAEOMtncNov</t>
+  </si>
+  <si>
+    <t>DO NOT TOUCH PAEOMtncDec</t>
   </si>
 </sst>
 </file>
@@ -136,7 +142,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -155,6 +161,9 @@
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -473,8 +482,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{656F5891-C399-4E72-BDAD-0F4BF0D31C04}">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -530,17 +539,16 @@
       <c r="F2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="7" t="s">
         <v>15</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1" location="/alohaRedirect/a0m1q000000f8HTAAY" display="https://xcdautomationlex--payrolfull--xcdhcm.cs107.visual.force.com/one/one.app - /alohaRedirect/a0m1q000000f8HTAAY" xr:uid="{B2B21470-2B76-4E4B-AA69-1F69A40AF37A}"/>
-    <hyperlink ref="G2" r:id="rId2" tooltip="DO NOT TOUCH AUTMN PAEOMaintenance" display="http://xcdautomationlex--payrolfull.lightning.force.com/lightning/r/sObject/00O1q000000JibCEAS/view?queryScope=userFolders" xr:uid="{A1AA857D-2A46-4BCF-80F7-C81D52FAD5E3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -548,8 +556,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0C9D326-24C3-49F9-A6BB-B9862FE77EE5}">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -606,13 +614,12 @@
         <v>10</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1" location="/alohaRedirect/a0m1q000000f8HTAAY" display="https://xcdautomationlex--payrolfull--xcdhcm.cs107.visual.force.com/one/one.app - /alohaRedirect/a0m1q000000f8HTAAY" xr:uid="{920D3131-A55C-40DE-9F14-2E2A84BE3F1B}"/>
-    <hyperlink ref="G2" r:id="rId2" tooltip="DO NOT TOUCH AUTMN PAEOMaintenance" display="http://xcdautomationlex--payrolfull.lightning.force.com/lightning/r/sObject/00O1q000000JibCEAS/view?queryScope=userFolders" xr:uid="{53AC0F66-3931-4259-8E89-2A46EFA87555}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -622,8 +629,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9FB080A-92DF-4846-AF59-D028CA8F2A66}">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -660,7 +667,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>11</v>
       </c>
@@ -680,15 +687,14 @@
         <v>12</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1" location="/alohaRedirect/a0m1q000000f8HTAAY" display="https://xcdautomationlex--payrolfull--xcdhcm.cs107.visual.force.com/one/one.app - /alohaRedirect/a0m1q000000f8HTAAY" xr:uid="{D60D828B-C6BE-42C6-BD38-3C9161BC6D18}"/>
-    <hyperlink ref="G2" r:id="rId2" tooltip="DO NOT TOUCH AUTMN PAEOMaintenance" display="http://xcdautomationlex--payrolfull.lightning.force.com/lightning/r/sObject/00O1q000000JibCEAS/view?queryScope=userFolders" xr:uid="{041B6B99-D6C7-449D-85FB-AA5AD5918745}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>